--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27077.89003869243</v>
+        <v>-13351.53190127427</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-103814.3918099368</v>
+        <v>-103814.3918099369</v>
       </c>
       <c r="F6" t="n">
         <v>29285.60819006318</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13351.53190127427</v>
+        <v>-171103.827504657</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12489318.26054982</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>26764950.88477556</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1251588.943881055</v>
+        <v>1777679.273765474</v>
       </c>
     </row>
     <row r="11">
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10044,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,19 +22728,19 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>138.4565384518428</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,7 +22828,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>215.5855378141321</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22986,7 +22986,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23223,7 +23223,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,7 +23281,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>135.370731907559</v>
@@ -23302,10 +23302,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,10 +23357,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>80.29914934735042</v>
@@ -23384,7 +23384,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23518,7 +23518,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>135.370731907559</v>
@@ -23536,13 +23536,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23594,10 +23594,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>80.29914934735042</v>
@@ -23618,10 +23618,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,7 +23676,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>94.30397654773019</v>
@@ -23831,7 +23831,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>93.17061249236157</v>
@@ -23858,7 +23858,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23913,13 +23913,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>92.09541281912071</v>
@@ -23934,7 +23934,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -24013,10 +24013,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24150,10 +24150,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>90.4687457914608</v>
@@ -24165,13 +24165,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,7 +24229,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
@@ -24253,7 +24253,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,10 +24305,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24332,7 +24332,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24387,10 +24387,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>90.4687457914608</v>
@@ -24405,10 +24405,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24542,10 +24542,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -24569,7 +24569,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24624,10 +24624,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>90.4687457914608</v>
@@ -24636,16 +24636,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24706,7 +24706,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
@@ -24724,10 +24724,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24779,7 +24779,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>93.17061249236157</v>
@@ -24806,7 +24806,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24861,10 +24861,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>90.4687457914608</v>
@@ -24876,13 +24876,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -25016,10 +25016,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -25043,7 +25043,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25101,7 +25101,7 @@
         <v>105.873818686614</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -25116,10 +25116,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25253,7 +25253,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>93.17061249236157</v>
@@ -25280,7 +25280,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25335,28 +25335,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25438,7 +25438,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25517,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25572,10 +25572,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>90.4687457914608</v>
@@ -25584,16 +25584,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25727,10 +25727,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25751,10 +25751,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25830,7 +25830,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25888,10 +25888,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>130.6648563030561</v>
@@ -25903,16 +25903,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -26046,28 +26046,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.849827620200811e-12</v>
+        <v>30843.31565055156</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.849827620200811e-12</v>
+        <v>62653.44414152264</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.849827620200811e-12</v>
+        <v>8763.798353522418</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>144241.6582168519</v>
+        <v>203567.8229193007</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>144241.6582168519</v>
+        <v>210003.7280040719</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>144241.6582168519</v>
+        <v>160517.5146961441</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>144241.6582168519</v>
+        <v>191435.7005844438</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144241.6582168519</v>
+        <v>194881.9063613088</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>144241.6582168519</v>
+        <v>175594.787023238</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>144241.6582168519</v>
+        <v>214750.2558960652</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144241.6582168519</v>
+        <v>166570.6345713827</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144241.6582168519</v>
+        <v>172868.1334815103</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144241.6582168519</v>
+        <v>202473.154932816</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144241.6582168519</v>
+        <v>165336.9572984047</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144241.6582168519</v>
+        <v>271727.5321030242</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5647.367654326345</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11471.75737802528</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1604.639135151993</v>
       </c>
       <c r="E2" t="n">
-        <v>32897.2202950715</v>
+        <v>43759.75749411144</v>
       </c>
       <c r="F2" t="n">
-        <v>32897.2202950715</v>
+        <v>44938.16265047801</v>
       </c>
       <c r="G2" t="n">
-        <v>32897.2202950715</v>
+        <v>35877.3066926884</v>
       </c>
       <c r="H2" t="n">
-        <v>32897.2202950715</v>
+        <v>41538.38298209538</v>
       </c>
       <c r="I2" t="n">
-        <v>32897.2202950715</v>
+        <v>42169.37840602843</v>
       </c>
       <c r="J2" t="n">
-        <v>32897.2202950715</v>
+        <v>38637.93402018445</v>
       </c>
       <c r="K2" t="n">
-        <v>32897.2202950715</v>
+        <v>45807.24522225143</v>
       </c>
       <c r="L2" t="n">
-        <v>32897.2202950715</v>
+        <v>36985.62441632363</v>
       </c>
       <c r="M2" t="n">
-        <v>32897.2202950715</v>
+        <v>38138.68759705121</v>
       </c>
       <c r="N2" t="n">
-        <v>32897.2202950715</v>
+        <v>43559.32532757201</v>
       </c>
       <c r="O2" t="n">
-        <v>32897.2202950715</v>
+        <v>36759.73984521499</v>
       </c>
       <c r="P2" t="n">
-        <v>32897.2202950715</v>
+        <v>56239.70424606079</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6081.780550812986</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12354.20025325799</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1728.072914779069</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11698.11698358148</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12967.16869043778</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3209.323812818194</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9305.867509102634</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9985.401042568998</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6182.307088583177</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13903.10376773223</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4402.896745963829</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5644.657094439688</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11482.26695807747</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4159.636438616057</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25138.05963952694</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="E6" t="n">
-        <v>-103814.3918099369</v>
+        <v>-121809.8806492308</v>
       </c>
       <c r="F6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
       <c r="G6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
       <c r="H6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076929</v>
       </c>
       <c r="I6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
       <c r="J6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
       <c r="K6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076929</v>
       </c>
       <c r="L6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
       <c r="M6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
       <c r="N6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
       <c r="O6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076929</v>
       </c>
       <c r="P6" t="n">
-        <v>29285.60819006318</v>
+        <v>11290.11935076928</v>
       </c>
     </row>
   </sheetData>
